--- a/Записка/Книга1.xlsx
+++ b/Записка/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my docs\stud\_ДИПЛОМНАЯ РАБОТА\Записка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FB2DF-A127-44D7-BBC1-22116D295B03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E835B165-05A9-4E3D-AB1B-DBC675510FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B1751DF-0ED9-483C-B3B2-1920B3579F8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1751DF-0ED9-483C-B3B2-1920B3579F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,7 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,28 +465,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -495,15 +476,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -519,6 +492,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -708,19 +705,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2570089540499499E-4</c:v>
+                  <c:v>1.26073315338187E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.16654646772812E-3</c:v>
+                  <c:v>1.2563756925215101E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.1739199044859001E-5</c:v>
+                  <c:v>2.0705403591375098E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9349570650759395E-4</c:v>
+                  <c:v>6.1304848688437303E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3600137905668401E-3</c:v>
+                  <c:v>2.9494822292703898E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,19 +783,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3755638961913E-4</c:v>
+                  <c:v>1.1293216725191E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2860256470736799E-3</c:v>
+                  <c:v>8.1862406446358497E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.17597241142292E-5</c:v>
+                  <c:v>1.68416376736697E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5430923708730704E-4</c:v>
+                  <c:v>1.07738065663264E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.03265892381667E-3</c:v>
+                  <c:v>9.823237879034621E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,19 +1174,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6451291209658699E-4</c:v>
+                  <c:v>1.6310545646836699E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6243229104890601E-3</c:v>
+                  <c:v>1.3446137643876601E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.6533678160188499E-5</c:v>
+                  <c:v>2.5899200275575299E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6219867501006496E-4</c:v>
+                  <c:v>5.6793397685210004E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1171116835706199E-3</c:v>
+                  <c:v>2.70885538435214E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,19 +1252,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.74220305699286E-4</c:v>
+                  <c:v>1.4812481091509299E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7832481388217801E-3</c:v>
+                  <c:v>5.4014395404792203E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.75499662341898E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5350640425740202E-4</c:v>
+                  <c:v>2.21632135908419E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>8.8781310574770006E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.11865094575828E-3</c:v>
+                  <c:v>8.8242774505788103E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,19 +1643,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.1290285778623801E-4</c:v>
+                  <c:v>2.15321164903082E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3183651355058699E-3</c:v>
+                  <c:v>1.6329712279028201E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>3.6893274653083799E-5</c:v>
+                  <c:v>2.6523833712177599E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7036747612627804E-4</c:v>
+                  <c:v>6.5133036490353305E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8766911297457704E-3</c:v>
+                  <c:v>3.6595902924774098E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,19 +1721,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.1761712278673499E-4</c:v>
+                  <c:v>1.8129465664680101E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8128596024276E-3</c:v>
+                  <c:v>5.72288300230114E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.58753977053126E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0333573501941402E-4</c:v>
+                  <c:v>2.3655467959596599E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>7.5168794992560805E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3596614588784798E-3</c:v>
+                  <c:v>2.5315538317280898E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,19 +2112,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.90600683608323E-4</c:v>
+                  <c:v>1.80085149700141E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5356603399483901E-3</c:v>
+                  <c:v>1.67835764833962E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>4.8191229357074497E-5</c:v>
+                  <c:v>5.9907996414287601E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1157602474782799E-4</c:v>
+                  <c:v>5.7635776350556205E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3975118551451099E-3</c:v>
+                  <c:v>2.8482321215409201E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,19 +2190,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9298077718885099E-4</c:v>
+                  <c:v>1.8394943908716399E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.83510143878907E-3</c:v>
+                  <c:v>5.82185977686314E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>4.7850948612935603E-5</c:v>
+                  <c:v>4.9038341644690403E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0636348814622999E-4</c:v>
+                  <c:v>3.3735052862343202E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4437833480809601E-3</c:v>
+                  <c:v>1.70807936160695E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,19 +2659,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9296239895517799E-4</c:v>
+                  <c:v>2.5742694489861101E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2792719457511998E-3</c:v>
+                  <c:v>8.3416034900151196E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>7.7622949957879405E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0734011179682397E-4</c:v>
+                  <c:v>5.9024865959688501E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>9.2169548571346502E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9177256986537602E-3</c:v>
+                  <c:v>1.6119569957164599E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,19 +3050,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9548949529876839E-4</c:v>
+                  <c:v>1.8685774115023902E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5732916112332581E-3</c:v>
+                  <c:v>1.626776307129292E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>4.1980075491520385E-5</c:v>
+                  <c:v>4.1915886047162338E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0658847282811794E-4</c:v>
+                  <c:v>5.8079501477887869E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5718085152464342E-3</c:v>
+                  <c:v>3.0547748289689383E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,19 +3128,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0306739884983597E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.799301354572666E-3</c:v>
+                  <c:v>6.6948052908588943E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0131797324909322E-5</c:v>
+                  <c:v>3.4144705365697421E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6497099526143526E-4</c:v>
+                  <c:v>1.4024164968507466E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1744960750376299E-3</c:v>
+                  <c:v>1.5432683444025687E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7085,8 +7082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6555FCB-B7FE-41E3-8AA9-1648AC0CB570}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:I31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7106,56 +7103,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="K1" s="20" t="s">
+      <c r="I1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="17"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="18"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7164,247 +7161,247 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>1.2570089540499499E-4</v>
+      <c r="C3" s="11">
+        <v>1.26073315338187E-4</v>
       </c>
       <c r="D3" s="5">
-        <v>1.3755638961913E-4</v>
-      </c>
-      <c r="F3" s="12">
+        <v>1.1293216725191E-4</v>
+      </c>
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
-        <v>1.6451291209658699E-4</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1.74220305699286E-4</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="H3" s="9">
+        <v>1.6310545646836699E-4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.4812481091509299E-4</v>
+      </c>
+      <c r="K3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="3">
-        <v>2.1290285778623801E-4</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2.1761712278673499E-4</v>
+      <c r="M3" s="9">
+        <v>2.15321164903082E-4</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1.8129465664680101E-4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>1.16654646772812E-3</v>
+        <v>1.2563756925215101E-3</v>
       </c>
       <c r="D4" s="6">
-        <v>1.2860256470736799E-3</v>
-      </c>
-      <c r="F4" s="10">
+        <v>8.1862406446358497E-4</v>
+      </c>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>1.6243229104890601E-3</v>
+        <v>1.3446137643876601E-3</v>
       </c>
       <c r="I4" s="6">
-        <v>1.7832481388217801E-3</v>
-      </c>
-      <c r="K4" s="10">
+        <v>5.4014395404792203E-4</v>
+      </c>
+      <c r="K4" s="9">
         <v>2</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="4">
-        <v>1.3183651355058699E-3</v>
+        <v>1.6329712279028201E-3</v>
       </c>
       <c r="N4" s="6">
-        <v>1.8128596024276E-3</v>
+        <v>5.72288300230114E-4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14">
-        <v>2.1739199044859001E-5</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2.17597241142292E-5</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="C5" s="13">
+        <v>2.0705403591375098E-5</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1.68416376736697E-5</v>
+      </c>
+      <c r="F5" s="9">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="14">
-        <v>2.6533678160188499E-5</v>
-      </c>
-      <c r="I5" s="15">
-        <v>2.75499662341898E-5</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="H5" s="13">
+        <v>2.5899200275575299E-5</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2.21632135908419E-5</v>
+      </c>
+      <c r="K5" s="9">
         <v>3</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="14">
-        <v>3.6893274653083799E-5</v>
-      </c>
-      <c r="N5" s="15">
-        <v>2.58753977053126E-5</v>
+      <c r="M5" s="13">
+        <v>2.6523833712177599E-5</v>
+      </c>
+      <c r="N5" s="14">
+        <v>2.3655467959596599E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>5.9349570650759395E-4</v>
+        <v>6.1304848688437303E-4</v>
       </c>
       <c r="D6" s="6">
-        <v>5.5430923708730704E-4</v>
-      </c>
-      <c r="F6" s="10">
+        <v>1.07738065663264E-4</v>
+      </c>
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>5.6219867501006496E-4</v>
-      </c>
-      <c r="I6" s="6">
-        <v>5.5350640425740202E-4</v>
-      </c>
-      <c r="K6" s="10">
+        <v>5.6793397685210004E-4</v>
+      </c>
+      <c r="I6" s="14">
+        <v>8.8781310574770006E-5</v>
+      </c>
+      <c r="K6" s="9">
         <v>4</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="4">
-        <v>7.7036747612627804E-4</v>
-      </c>
-      <c r="N6" s="6">
-        <v>6.0333573501941402E-4</v>
+        <v>6.5133036490353305E-4</v>
+      </c>
+      <c r="N6" s="14">
+        <v>7.5168794992560805E-5</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
-        <v>2.3600137905668401E-3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3.03265892381667E-3</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="C7" s="28">
+        <v>2.9494822292703898E-3</v>
+      </c>
+      <c r="D7" s="29">
+        <v>9.823237879034621E-4</v>
+      </c>
+      <c r="F7" s="10">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
-        <v>3.1171116835706199E-3</v>
-      </c>
-      <c r="I7" s="8">
-        <v>3.11865094575828E-3</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="H7" s="9">
+        <v>2.70885538435214E-3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8.8242774505788103E-4</v>
+      </c>
+      <c r="K7" s="10">
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="7">
-        <v>5.8766911297457704E-3</v>
-      </c>
-      <c r="N7" s="8">
-        <v>3.3596614588784798E-3</v>
+      <c r="M7" s="9">
+        <v>3.6595902924774098E-3</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2.5315538317280898E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="F25" s="20" t="s">
+      <c r="D25" s="33"/>
+      <c r="F25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="K25" s="20" t="s">
+      <c r="I25" s="33"/>
+      <c r="K25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="17"/>
+      <c r="N25" s="33"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="18"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="2" t="s">
         <v>0</v>
       </c>
@@ -7413,191 +7410,191 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
-        <v>1.90600683608323E-4</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1.9298077718885099E-4</v>
-      </c>
-      <c r="F27" s="12">
+      <c r="C27" s="9">
+        <v>1.80085149700141E-4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1.8394943908716399E-4</v>
+      </c>
+      <c r="F27" s="11">
         <v>1</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="18">
         <v>2.83730127597699E-4</v>
       </c>
-      <c r="I27" s="5">
-        <v>2.9296239895517799E-4</v>
-      </c>
-      <c r="K27" s="12">
+      <c r="I27" s="20">
+        <v>2.5742694489861101E-4</v>
+      </c>
+      <c r="K27" s="11">
         <v>1</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3">
-        <f>SUM(C3,H3,M3,C27,H27)/5</f>
-        <v>1.9548949529876839E-4</v>
-      </c>
-      <c r="N27" s="3">
-        <f>SUM(D3,I3,N3,D27,I27)/5</f>
-        <v>2.0306739884983597E-4</v>
+        <f>SUM(C3,H3,N3,C27,H27)/5</f>
+        <v>1.8685774115023902E-4</v>
+      </c>
+      <c r="N27" s="3" t="e">
+        <f>SUM(D3,I3,#REF!,D27,I27)/5</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>2</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="4">
-        <v>1.5356603399483901E-3</v>
+        <v>1.67835764833962E-3</v>
       </c>
       <c r="D28" s="6">
-        <v>1.83510143878907E-3</v>
-      </c>
-      <c r="F28" s="10">
+        <v>5.82185977686314E-4</v>
+      </c>
+      <c r="F28" s="9">
         <v>2</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="4">
         <v>2.2215632024948501E-3</v>
       </c>
       <c r="I28" s="6">
-        <v>2.2792719457511998E-3</v>
-      </c>
-      <c r="K28" s="10">
+        <v>8.3416034900151196E-4</v>
+      </c>
+      <c r="K28" s="9">
         <v>2</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="8" t="s">
         <v>4</v>
       </c>
       <c r="M28" s="3">
         <f>SUM(C4,H4,M4,C28,H28)/5</f>
-        <v>1.5732916112332581E-3</v>
+        <v>1.626776307129292E-3</v>
       </c>
       <c r="N28" s="3">
         <f>SUM(D4,I4,N4,D28,I28)/5</f>
-        <v>1.799301354572666E-3</v>
+        <v>6.6948052908588943E-4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="14">
-        <v>4.8191229357074497E-5</v>
-      </c>
-      <c r="D29" s="15">
-        <v>4.7850948612935603E-5</v>
-      </c>
-      <c r="F29" s="10">
+      <c r="C29" s="13">
+        <v>5.9907996414287601E-5</v>
+      </c>
+      <c r="D29" s="14">
+        <v>4.9038341644690403E-5</v>
+      </c>
+      <c r="F29" s="9">
         <v>3</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="23">
         <v>7.6542996242396101E-5</v>
       </c>
-      <c r="I29" s="15">
-        <v>7.7622949957879405E-5</v>
-      </c>
-      <c r="K29" s="10">
+      <c r="I29" s="24">
+        <v>5.9024865959688501E-5</v>
+      </c>
+      <c r="K29" s="9">
         <v>3</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="15">
         <f>SUM(C5,H5,M5,C29,H29)/5</f>
-        <v>4.1980075491520385E-5</v>
+        <v>4.1915886047162338E-5</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" ref="N29" si="0">SUM(D5,I5,N5,D29,I29)/5</f>
-        <v>4.0131797324909322E-5</v>
+        <v>3.4144705365697421E-5</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>4</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="4">
-        <v>6.1157602474782799E-4</v>
+        <v>5.7635776350556205E-4</v>
       </c>
       <c r="D30" s="6">
-        <v>6.0636348814622999E-4</v>
-      </c>
-      <c r="F30" s="10">
+        <v>3.3735052862343202E-4</v>
+      </c>
+      <c r="F30" s="9">
         <v>4</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="4">
         <v>4.9530448174882498E-4</v>
       </c>
-      <c r="I30" s="6">
-        <v>5.0734011179682397E-4</v>
-      </c>
-      <c r="K30" s="10">
+      <c r="I30" s="14">
+        <v>9.2169548571346502E-5</v>
+      </c>
+      <c r="K30" s="9">
         <v>4</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="8" t="s">
         <v>6</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" ref="M30:N30" si="1">SUM(C6,H6,M6,C30,H30)/5</f>
-        <v>6.0658847282811794E-4</v>
+        <v>5.8079501477887869E-4</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="1"/>
-        <v>5.6497099526143526E-4</v>
+        <v>1.4024164968507466E-4</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="7">
-        <v>3.3975118551451099E-3</v>
-      </c>
-      <c r="D31" s="8">
-        <v>3.4437833480809601E-3</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="C31" s="9">
+        <v>2.8482321215409201E-3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1.70807936160695E-3</v>
+      </c>
+      <c r="F31" s="10">
         <v>5</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="10">
         <v>3.1077141172038301E-3</v>
       </c>
-      <c r="I31" s="8">
-        <v>2.9177256986537602E-3</v>
-      </c>
-      <c r="K31" s="11">
+      <c r="I31" s="7">
+        <v>1.6119569957164599E-3</v>
+      </c>
+      <c r="K31" s="10">
         <v>5</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -7605,15 +7602,20 @@
       </c>
       <c r="M31" s="3">
         <f t="shared" ref="M31:N31" si="2">SUM(C7,H7,M7,C31,H31)/5</f>
-        <v>3.5718085152464342E-3</v>
+        <v>3.0547748289689383E-3</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="2"/>
-        <v>3.1744960750376299E-3</v>
+        <v>1.5432683444025687E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="A1:A2"/>
@@ -7627,11 +7629,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7643,8 +7640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2802620E-2719-4D9C-AB2C-C1EFF0E6511D}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="A1:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7654,551 +7651,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
-        <v>1.2570089540499499E-4</v>
+      <c r="C3" s="11">
+        <v>1.26073315338187E-4</v>
       </c>
       <c r="D3" s="5">
-        <v>1.3755638961913E-4</v>
+        <v>1.1293216725191E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
-        <v>1.6451291209658699E-4</v>
+      <c r="C4" s="9">
+        <v>1.6310545646836699E-4</v>
       </c>
       <c r="D4" s="6">
-        <v>1.74220305699286E-4</v>
+        <v>1.4812481091509299E-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
-        <v>2.1290285778623801E-4</v>
+      <c r="C5" s="9">
+        <v>2.15321164903082E-4</v>
       </c>
       <c r="D5" s="6">
-        <v>2.1761712278673499E-4</v>
+        <v>1.8129465664680101E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
-        <v>1.90600683608323E-4</v>
+      <c r="C6" s="9">
+        <v>1.80085149700141E-4</v>
       </c>
       <c r="D6" s="6">
-        <v>1.9298077718885099E-4</v>
+        <v>1.8394943908716399E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <v>2.83730127597699E-4</v>
       </c>
-      <c r="D7" s="27">
-        <v>2.9296239895517799E-4</v>
+      <c r="D7" s="20">
+        <v>2.5742694489861101E-4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="32">
+      <c r="B8" s="38"/>
+      <c r="C8" s="21">
         <f>SUM(C3:C7)/5</f>
-        <v>1.9548949529876839E-4</v>
-      </c>
-      <c r="D8" s="29">
+        <v>1.9366304280149521E-4</v>
+      </c>
+      <c r="D8" s="22">
         <f>SUM(D3:D7)/5</f>
-        <v>2.0306739884983597E-4</v>
+        <v>1.7674560375991578E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4">
-        <v>1.16654646772812E-3</v>
+        <v>1.2563756925215101E-3</v>
       </c>
       <c r="D12" s="6">
-        <v>1.2860256470736799E-3</v>
+        <v>8.1862406446358497E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4">
-        <v>1.6243229104890601E-3</v>
+        <v>1.3446137643876601E-3</v>
       </c>
       <c r="D13" s="6">
-        <v>1.7832481388217801E-3</v>
+        <v>5.4014395404792203E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>1.3183651355058699E-3</v>
+        <v>1.6329712279028201E-3</v>
       </c>
       <c r="D14" s="6">
-        <v>1.8128596024276E-3</v>
+        <v>5.72288300230114E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <v>1.5356603399483901E-3</v>
+        <v>1.67835764833962E-3</v>
       </c>
       <c r="D15" s="6">
-        <v>1.83510143878907E-3</v>
+        <v>5.82185977686314E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="18">
         <v>5</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="4">
         <v>2.2215632024948501E-3</v>
       </c>
       <c r="D16" s="6">
-        <v>2.2792719457511998E-3</v>
+        <v>8.3416034900151196E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="32">
+      <c r="B17" s="38"/>
+      <c r="C17" s="21">
         <f>SUM(C12:C16)/5</f>
-        <v>1.5732916112332581E-3</v>
-      </c>
-      <c r="D17" s="29">
+        <v>1.626776307129292E-3</v>
+      </c>
+      <c r="D17" s="22">
         <f>SUM(D12:D16)/5</f>
-        <v>1.799301354572666E-3</v>
+        <v>6.6948052908588943E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="41" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="14">
-        <v>2.1739199044859001E-5</v>
-      </c>
-      <c r="D21" s="15">
-        <v>2.17597241142292E-5</v>
+      <c r="C21" s="13">
+        <v>2.0705403591375098E-5</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1.68416376736697E-5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="14">
-        <v>2.6533678160188499E-5</v>
-      </c>
-      <c r="D22" s="15">
-        <v>2.75499662341898E-5</v>
+      <c r="C22" s="13">
+        <v>2.5899200275575299E-5</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2.21632135908419E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="14">
-        <v>3.6893274653083799E-5</v>
-      </c>
-      <c r="D23" s="15">
-        <v>2.58753977053126E-5</v>
+      <c r="C23" s="13">
+        <v>2.6523833712177599E-5</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2.3655467959596599E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="14">
-        <v>4.8191229357074497E-5</v>
-      </c>
-      <c r="D24" s="15">
-        <v>4.7850948612935603E-5</v>
+      <c r="C24" s="13">
+        <v>5.9907996414287601E-5</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4.9038341644690403E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
+      <c r="A25" s="18">
         <v>5</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="23">
         <v>7.6542996242396101E-5</v>
       </c>
-      <c r="D25" s="35">
-        <v>7.7622949957879405E-5</v>
+      <c r="D25" s="24">
+        <v>5.9024865959688501E-5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31">
+      <c r="B26" s="38"/>
+      <c r="C26" s="21">
         <f>SUM(C21:C25)/5</f>
-        <v>4.1980075491520385E-5</v>
-      </c>
-      <c r="D26" s="33">
+        <v>4.1915886047162338E-5</v>
+      </c>
+      <c r="D26" s="22">
         <f>SUM(D21:D25)/5</f>
-        <v>4.0131797324909322E-5</v>
+        <v>3.4144705365697421E-5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="41" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>1</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="4">
-        <v>5.9349570650759395E-4</v>
+        <v>6.1304848688437303E-4</v>
       </c>
       <c r="D30" s="6">
-        <v>5.5430923708730704E-4</v>
+        <v>1.07738065663264E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>2</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="4">
-        <v>5.6219867501006496E-4</v>
-      </c>
-      <c r="D31" s="6">
-        <v>5.5350640425740202E-4</v>
+        <v>5.6793397685210004E-4</v>
+      </c>
+      <c r="D31" s="14">
+        <v>8.8781310574770006E-5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>3</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="4">
-        <v>7.7036747612627804E-4</v>
-      </c>
-      <c r="D32" s="6">
-        <v>6.0333573501941402E-4</v>
+        <v>6.5133036490353305E-4</v>
+      </c>
+      <c r="D32" s="14">
+        <v>7.5168794992560805E-5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>4</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4">
-        <v>6.1157602474782799E-4</v>
+        <v>5.7635776350556205E-4</v>
       </c>
       <c r="D33" s="6">
-        <v>6.0636348814622999E-4</v>
+        <v>3.3735052862343202E-4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="18">
         <v>5</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="4">
         <v>4.9530448174882498E-4</v>
       </c>
-      <c r="D34" s="6">
-        <v>5.0734011179682397E-4</v>
+      <c r="D34" s="14">
+        <v>9.2169548571346502E-5</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31">
+      <c r="B35" s="38"/>
+      <c r="C35" s="21">
         <f>SUM(C30:C34)/5</f>
-        <v>6.0658847282811794E-4</v>
-      </c>
-      <c r="D35" s="33">
+        <v>5.8079501477887869E-4</v>
+      </c>
+      <c r="D35" s="22">
         <f>SUM(D30:D34)/5</f>
-        <v>5.6497099526143526E-4</v>
+        <v>1.4024164968507466E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="41" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>1</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="39">
-        <v>2.3600137905668401E-3</v>
-      </c>
-      <c r="D39" s="40">
-        <v>3.03265892381667E-3</v>
+      <c r="C39" s="28">
+        <v>2.9494822292703898E-3</v>
+      </c>
+      <c r="D39" s="29">
+        <v>9.823237879034621E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="10">
-        <v>3.1171116835706199E-3</v>
+      <c r="C40" s="9">
+        <v>2.70885538435214E-3</v>
       </c>
       <c r="D40" s="6">
-        <v>3.11865094575828E-3</v>
+        <v>8.8242774505788103E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="10">
-        <v>5.8766911297457704E-3</v>
+      <c r="C41" s="9">
+        <v>3.6595902924774098E-3</v>
       </c>
       <c r="D41" s="6">
-        <v>3.3596614588784798E-3</v>
+        <v>2.5315538317280898E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="10">
-        <v>3.3975118551451099E-3</v>
+      <c r="C42" s="9">
+        <v>2.8482321215409201E-3</v>
       </c>
       <c r="D42" s="6">
-        <v>3.4437833480809601E-3</v>
+        <v>1.70807936160695E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="18">
         <v>5</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>3.1077141172038301E-3</v>
       </c>
-      <c r="D43" s="8">
-        <v>2.9177256986537602E-3</v>
+      <c r="D43" s="7">
+        <v>1.6119569957164599E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="37">
+      <c r="B44" s="38"/>
+      <c r="C44" s="26">
         <f>SUM(C39:C43)/5</f>
-        <v>3.5718085152464342E-3</v>
-      </c>
-      <c r="D44" s="38">
+        <v>3.0547748289689383E-3</v>
+      </c>
+      <c r="D44" s="27">
         <f>SUM(D39:D43)/5</f>
-        <v>3.1744960750376299E-3</v>
+        <v>1.5432683444025687E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:D28"/>
@@ -8209,6 +8196,16 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Записка/Книга1.xlsx
+++ b/Записка/Книга1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my docs\stud\_ДИПЛОМНАЯ РАБОТА\Записка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E835B165-05A9-4E3D-AB1B-DBC675510FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65C7FFC-3CB5-4C5D-8BE1-96472F8D19B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1751DF-0ED9-483C-B3B2-1920B3579F8B}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -120,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -210,17 +217,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,56 +431,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -493,11 +523,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,14 +601,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,7 +615,58 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -705,19 +849,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.26073315338187E-4</c:v>
+                  <c:v>1.19091638167079E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2563756925215101E-3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.0705403591375098E-5</c:v>
+                  <c:v>4.3615181822097098E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9328823015303801E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1304848688437303E-4</c:v>
+                  <c:v>8.22033838071863E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9494822292703898E-3</c:v>
+                  <c:v>1.8201299616574199E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,21 +926,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.1293216725191E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1862406446358497E-4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>1.68416376736697E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.07738065663264E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.823237879034621E-4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1174,19 +1303,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6310545646836699E-4</c:v>
+                  <c:v>1.8688751987695399E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3446137643876601E-3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.5899200275575299E-5</c:v>
+                  <c:v>5.68714068939032E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7371695425065702E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6793397685210004E-4</c:v>
+                  <c:v>8.2975325250767397E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.70885538435214E-3</c:v>
+                  <c:v>1.6288240943534899E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,21 +1380,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4812481091509299E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4014395404792203E-4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.21632135908419E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>8.8781310574770006E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.8242774505788103E-4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1643,19 +1757,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.15321164903082E-4</c:v>
+                  <c:v>2.10165131647665E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6329712279028201E-3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.6523833712177599E-5</c:v>
+                  <c:v>6.5751452983870405E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6418813470357497E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5133036490353305E-4</c:v>
+                  <c:v>8.25481182296967E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6595902924774098E-3</c:v>
+                  <c:v>1.57150416389204E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,21 +1834,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.8129465664680101E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.72288300230114E-4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.3655467959596599E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>7.5168794992560805E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5315538317280898E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2112,19 +2211,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.80085149700141E-4</c:v>
+                  <c:v>1.98957760615591E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.67835764833962E-3</c:v>
+                  <c:v>6.8128437536949297E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>5.9907996414287601E-5</c:v>
+                  <c:v>4.9108418943954701E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7635776350556205E-4</c:v>
+                  <c:v>8.1903339658118102E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8482321215409201E-3</c:v>
+                  <c:v>2.52074538711954E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,21 +2288,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.8394943908716399E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.82185977686314E-4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>4.9038341644690403E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3735052862343202E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.70807936160695E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2581,19 +2665,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.83730127597699E-4</c:v>
+                  <c:v>2.66512201256355E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2215632024948501E-3</c:v>
+                  <c:v>1.1873774474582099E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>7.6542996242396101E-5</c:v>
+                  <c:v>6.4042642181379899E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9530448174882498E-4</c:v>
+                  <c:v>8.1929118168569902E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1077141172038301E-3</c:v>
+                  <c:v>5.2473541149715896E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,21 +2742,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.5742694489861101E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3416034900151196E-4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>5.9024865959688501E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>9.2169548571346502E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6119569957164599E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3050,19 +3119,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8685774115023902E-4</c:v>
+                  <c:v>1.542898239831958E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.626776307129292E-3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>4.1915886047162338E-5</c:v>
+                  <c:v>7.0620844796528211E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5374890464457633E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8079501477887869E-4</c:v>
+                  <c:v>8.2311857022867674E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0547748289689383E-3</c:v>
+                  <c:v>2.5577115443988158E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,16 +3200,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6948052908588943E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4144705365697421E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4024164968507466E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5432683444025687E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7083,530 +7152,482 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+      <selection activeCell="D27" sqref="D27:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="3.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="24"/>
+    <col min="11" max="11" width="3.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="52"/>
+      <c r="K1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="33"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>1.26073315338187E-4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.1293216725191E-4</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="C3" s="31">
+        <v>1.19091638167079E-4</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
-        <v>1.6310545646836699E-4</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1.4812481091509299E-4</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="H3" s="31">
+        <v>1.8688751987695399E-4</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="K3" s="29">
         <v>1</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="9">
-        <v>2.15321164903082E-4</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1.8129465664680101E-4</v>
-      </c>
+      <c r="M3" s="31">
+        <v>2.10165131647665E-4</v>
+      </c>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>1.2563756925215101E-3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8.1862406446358497E-4</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="C4" s="34">
+        <v>4.3615181822097098E-4</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4">
-        <v>1.3446137643876601E-3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>5.4014395404792203E-4</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="H4" s="34">
+        <v>5.68714068939032E-4</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="K4" s="34">
         <v>2</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="4">
-        <v>1.6329712279028201E-3</v>
-      </c>
-      <c r="N4" s="6">
-        <v>5.72288300230114E-4</v>
-      </c>
+      <c r="M4" s="34">
+        <v>6.5751452983870405E-4</v>
+      </c>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13">
-        <v>2.0705403591375098E-5</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1.68416376736697E-5</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="C5" s="34">
+        <v>9.9328823015303801E-6</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="F5" s="34">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13">
-        <v>2.5899200275575299E-5</v>
-      </c>
-      <c r="I5" s="14">
-        <v>2.21632135908419E-5</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="H5" s="34">
+        <v>1.7371695425065702E-5</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="K5" s="34">
         <v>3</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="13">
-        <v>2.6523833712177599E-5</v>
-      </c>
-      <c r="N5" s="14">
-        <v>2.3655467959596599E-5</v>
-      </c>
+      <c r="M5" s="34">
+        <v>3.6418813470357497E-5</v>
+      </c>
+      <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>6.1304848688437303E-4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.07738065663264E-4</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="C6" s="34">
+        <v>8.22033838071863E-4</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="F6" s="34">
         <v>4</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4">
-        <v>5.6793397685210004E-4</v>
-      </c>
-      <c r="I6" s="14">
-        <v>8.8781310574770006E-5</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="H6" s="34">
+        <v>8.2975325250767397E-4</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="K6" s="34">
         <v>4</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="4">
-        <v>6.5133036490353305E-4</v>
-      </c>
-      <c r="N6" s="14">
-        <v>7.5168794992560805E-5</v>
-      </c>
+      <c r="M6" s="34">
+        <v>8.25481182296967E-4</v>
+      </c>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28">
-        <v>2.9494822292703898E-3</v>
-      </c>
-      <c r="D7" s="29">
-        <v>9.823237879034621E-4</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="C7" s="37">
+        <v>1.8201299616574199E-3</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="F7" s="37">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="9">
-        <v>2.70885538435214E-3</v>
-      </c>
-      <c r="I7" s="6">
-        <v>8.8242774505788103E-4</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="H7" s="37">
+        <v>1.6288240943534899E-3</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="K7" s="37">
         <v>5</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="9">
-        <v>3.6595902924774098E-3</v>
-      </c>
-      <c r="N7" s="6">
-        <v>2.5315538317280898E-3</v>
-      </c>
+      <c r="M7" s="37">
+        <v>1.57150416389204E-3</v>
+      </c>
+      <c r="N7" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="F25" s="34" t="s">
+      <c r="D25" s="52"/>
+      <c r="F25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="K25" s="34" t="s">
+      <c r="I25" s="52"/>
+      <c r="K25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="L25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="32" t="s">
+      <c r="M25" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="33"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="2" t="s">
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="2" t="s">
+      <c r="K26" s="54"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="29">
         <v>1</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="9">
-        <v>1.80085149700141E-4</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1.8394943908716399E-4</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="C27" s="31">
+        <v>1.98957760615591E-4</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="F27" s="29">
         <v>1</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="18">
-        <v>2.83730127597699E-4</v>
-      </c>
-      <c r="I27" s="20">
-        <v>2.5742694489861101E-4</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="H27" s="40">
+        <v>2.66512201256355E-4</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="K27" s="29">
         <v>1</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="31">
         <f>SUM(C3,H3,N3,C27,H27)/5</f>
-        <v>1.8685774115023902E-4</v>
-      </c>
-      <c r="N27" s="3" t="e">
-        <f>SUM(D3,I3,#REF!,D27,I27)/5</f>
-        <v>#REF!</v>
+        <v>1.542898239831958E-4</v>
+      </c>
+      <c r="N27" s="42">
+        <f>SUM(D3,I3,N3,D27,I27)/5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="34">
         <v>2</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4">
-        <v>1.67835764833962E-3</v>
-      </c>
-      <c r="D28" s="6">
-        <v>5.82185977686314E-4</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="C28" s="34">
+        <v>6.8128437536949297E-4</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="F28" s="34">
         <v>2</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="4">
-        <v>2.2215632024948501E-3</v>
-      </c>
-      <c r="I28" s="6">
-        <v>8.3416034900151196E-4</v>
-      </c>
-      <c r="K28" s="9">
+      <c r="H28" s="43">
+        <v>1.1873774474582099E-3</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="K28" s="34">
         <v>2</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="29">
         <f>SUM(C4,H4,M4,C28,H28)/5</f>
-        <v>1.626776307129292E-3</v>
-      </c>
-      <c r="N28" s="3">
+        <v>7.0620844796528211E-4</v>
+      </c>
+      <c r="N28" s="44">
         <f>SUM(D4,I4,N4,D28,I28)/5</f>
-        <v>6.6948052908588943E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="34">
         <v>3</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="13">
-        <v>5.9907996414287601E-5</v>
-      </c>
-      <c r="D29" s="14">
-        <v>4.9038341644690403E-5</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="C29" s="22">
+        <v>4.9108418943954701E-5</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="F29" s="34">
         <v>3</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="23">
-        <v>7.6542996242396101E-5</v>
-      </c>
-      <c r="I29" s="24">
-        <v>5.9024865959688501E-5</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="H29" s="14">
+        <v>6.4042642181379899E-5</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="K29" s="34">
         <v>3</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="29">
         <f>SUM(C5,H5,M5,C29,H29)/5</f>
-        <v>4.1915886047162338E-5</v>
-      </c>
-      <c r="N29" s="3">
+        <v>3.5374890464457633E-5</v>
+      </c>
+      <c r="N29" s="44">
         <f t="shared" ref="N29" si="0">SUM(D5,I5,N5,D29,I29)/5</f>
-        <v>3.4144705365697421E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="34">
         <v>4</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4">
-        <v>5.7635776350556205E-4</v>
-      </c>
-      <c r="D30" s="6">
-        <v>3.3735052862343202E-4</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="C30" s="34">
+        <v>8.1903339658118102E-4</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="F30" s="34">
         <v>4</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="4">
-        <v>4.9530448174882498E-4</v>
-      </c>
-      <c r="I30" s="14">
-        <v>9.2169548571346502E-5</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="H30" s="43">
+        <v>8.1929118168569902E-4</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="K30" s="34">
         <v>4</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="29">
         <f t="shared" ref="M30:N30" si="1">SUM(C6,H6,M6,C30,H30)/5</f>
-        <v>5.8079501477887869E-4</v>
-      </c>
-      <c r="N30" s="3">
+        <v>8.2311857022867674E-4</v>
+      </c>
+      <c r="N30" s="44">
         <f t="shared" si="1"/>
-        <v>1.4024164968507466E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="37">
         <v>5</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="9">
-        <v>2.8482321215409201E-3</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1.70807936160695E-3</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="C31" s="37">
+        <v>2.52074538711954E-3</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="F31" s="37">
         <v>5</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="10">
-        <v>3.1077141172038301E-3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1.6119569957164599E-3</v>
-      </c>
-      <c r="K31" s="10">
+      <c r="H31" s="37">
+        <v>5.2473541149715896E-3</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="K31" s="37">
         <v>5</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="45">
         <f t="shared" ref="M31:N31" si="2">SUM(C7,H7,M7,C31,H31)/5</f>
-        <v>3.0547748289689383E-3</v>
-      </c>
-      <c r="N31" s="3">
+        <v>2.5577115443988158E-3</v>
+      </c>
+      <c r="N31" s="46">
         <f t="shared" si="2"/>
-        <v>1.5432683444025687E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7640,8 +7661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2802620E-2719-4D9C-AB2C-C1EFF0E6511D}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="A1:D44"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D44" sqref="C44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7651,537 +7672,587 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
-        <v>1.26073315338187E-4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.1293216725191E-4</v>
+      <c r="C3" s="6">
+        <f>Лист1!C3</f>
+        <v>1.19091638167079E-4</v>
+      </c>
+      <c r="D3" s="6">
+        <f>Лист1!D3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9">
-        <v>1.6310545646836699E-4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.4812481091509299E-4</v>
+      <c r="C4" s="4">
+        <f>Лист1!H3</f>
+        <v>1.8688751987695399E-4</v>
+      </c>
+      <c r="D4" s="4">
+        <f>Лист1!I3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9">
-        <v>2.15321164903082E-4</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1.8129465664680101E-4</v>
+      <c r="C5" s="4">
+        <f>Лист1!M3</f>
+        <v>2.10165131647665E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <f>Лист1!N3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
-        <v>1.80085149700141E-4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.8394943908716399E-4</v>
+      <c r="C6" s="4">
+        <f>Лист1!C27</f>
+        <v>1.98957760615591E-4</v>
+      </c>
+      <c r="D6" s="4">
+        <f>Лист1!D27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18">
-        <v>2.83730127597699E-4</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2.5742694489861101E-4</v>
+      <c r="C7" s="11">
+        <f>Лист1!H27</f>
+        <v>2.66512201256355E-4</v>
+      </c>
+      <c r="D7" s="11">
+        <f>Лист1!I27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="21">
+      <c r="B8" s="57"/>
+      <c r="C8" s="13">
         <f>SUM(C3:C7)/5</f>
-        <v>1.9366304280149521E-4</v>
-      </c>
-      <c r="D8" s="22">
+        <v>1.9632285031272881E-4</v>
+      </c>
+      <c r="D8" s="47">
         <f>SUM(D3:D7)/5</f>
-        <v>1.7674560375991578E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
-        <v>1.2563756925215101E-3</v>
+      <c r="C12" s="6">
+        <f>Лист1!C4</f>
+        <v>4.3615181822097098E-4</v>
       </c>
       <c r="D12" s="6">
-        <v>8.1862406446358497E-4</v>
+        <f>Лист1!D4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4">
-        <v>1.3446137643876601E-3</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5.4014395404792203E-4</v>
+        <f>Лист1!H4</f>
+        <v>5.68714068939032E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <f>Лист1!I4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>1.6329712279028201E-3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>5.72288300230114E-4</v>
+        <f>Лист1!M4</f>
+        <v>6.5751452983870405E-4</v>
+      </c>
+      <c r="D14" s="4">
+        <f>Лист1!N4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <v>1.67835764833962E-3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>5.82185977686314E-4</v>
+        <f>Лист1!C4</f>
+        <v>4.3615181822097098E-4</v>
+      </c>
+      <c r="D15" s="4">
+        <f>Лист1!D4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="11">
         <v>5</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
-        <v>2.2215632024948501E-3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>8.3416034900151196E-4</v>
+      <c r="C16" s="11">
+        <f>Лист1!H4</f>
+        <v>5.68714068939032E-4</v>
+      </c>
+      <c r="D16" s="11">
+        <f>Лист1!I4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="21">
+      <c r="B17" s="57"/>
+      <c r="C17" s="13">
         <f>SUM(C12:C16)/5</f>
-        <v>1.626776307129292E-3</v>
-      </c>
-      <c r="D17" s="22">
+        <v>5.3344926083174202E-4</v>
+      </c>
+      <c r="D17" s="47">
         <f>SUM(D12:D16)/5</f>
-        <v>6.6948052908588943E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="30" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13">
-        <v>2.0705403591375098E-5</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1.68416376736697E-5</v>
+      <c r="C21" s="6">
+        <f>Лист1!C5</f>
+        <v>9.9328823015303801E-6</v>
+      </c>
+      <c r="D21" s="6">
+        <f>Лист1!D5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="13">
-        <v>2.5899200275575299E-5</v>
-      </c>
-      <c r="D22" s="14">
-        <v>2.21632135908419E-5</v>
+      <c r="C22" s="4">
+        <f>Лист1!H5</f>
+        <v>1.7371695425065702E-5</v>
+      </c>
+      <c r="D22" s="4">
+        <f>Лист1!I5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="4">
         <v>3</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="13">
-        <v>2.6523833712177599E-5</v>
-      </c>
-      <c r="D23" s="14">
-        <v>2.3655467959596599E-5</v>
+      <c r="C23" s="4">
+        <f>Лист1!M5</f>
+        <v>3.6418813470357497E-5</v>
+      </c>
+      <c r="D23" s="4">
+        <f>Лист1!N5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13">
-        <v>5.9907996414287601E-5</v>
-      </c>
-      <c r="D24" s="14">
-        <v>4.9038341644690403E-5</v>
+      <c r="C24" s="4">
+        <f>Лист1!C5</f>
+        <v>9.9328823015303801E-6</v>
+      </c>
+      <c r="D24" s="4">
+        <f>Лист1!D5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="11">
         <v>5</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="23">
-        <v>7.6542996242396101E-5</v>
-      </c>
-      <c r="D25" s="24">
-        <v>5.9024865959688501E-5</v>
+      <c r="C25" s="11">
+        <f>Лист1!H5</f>
+        <v>1.7371695425065702E-5</v>
+      </c>
+      <c r="D25" s="11">
+        <f>Лист1!I5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="21">
+      <c r="B26" s="57"/>
+      <c r="C26" s="13">
         <f>SUM(C21:C25)/5</f>
-        <v>4.1915886047162338E-5</v>
-      </c>
-      <c r="D26" s="22">
+        <v>1.8205593784709931E-5</v>
+      </c>
+      <c r="D26" s="47">
         <f>SUM(D21:D25)/5</f>
-        <v>3.4144705365697421E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="60"/>
     </row>
     <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="30" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="6">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="4">
-        <v>6.1304848688437303E-4</v>
+      <c r="C30" s="6">
+        <f>Лист1!C6</f>
+        <v>8.22033838071863E-4</v>
       </c>
       <c r="D30" s="6">
-        <v>1.07738065663264E-4</v>
+        <f>Лист1!D6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="4">
-        <v>5.6793397685210004E-4</v>
-      </c>
-      <c r="D31" s="14">
-        <v>8.8781310574770006E-5</v>
+        <f>Лист1!H6</f>
+        <v>8.2975325250767397E-4</v>
+      </c>
+      <c r="D31" s="4">
+        <f>Лист1!I6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="4">
         <v>3</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="4">
-        <v>6.5133036490353305E-4</v>
-      </c>
-      <c r="D32" s="14">
-        <v>7.5168794992560805E-5</v>
+        <f>Лист1!M6</f>
+        <v>8.25481182296967E-4</v>
+      </c>
+      <c r="D32" s="4">
+        <f>Лист1!N6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="4">
         <v>4</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4">
-        <v>5.7635776350556205E-4</v>
-      </c>
-      <c r="D33" s="6">
-        <v>3.3735052862343202E-4</v>
+        <f>Лист1!C6</f>
+        <v>8.22033838071863E-4</v>
+      </c>
+      <c r="D33" s="4">
+        <f>Лист1!D6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="11">
         <v>5</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="4">
-        <v>4.9530448174882498E-4</v>
-      </c>
-      <c r="D34" s="14">
-        <v>9.2169548571346502E-5</v>
+      <c r="C34" s="11">
+        <f>Лист1!H6</f>
+        <v>8.2975325250767397E-4</v>
+      </c>
+      <c r="D34" s="11">
+        <f>Лист1!I6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="21">
+      <c r="B35" s="57"/>
+      <c r="C35" s="13">
         <f>SUM(C30:C34)/5</f>
-        <v>5.8079501477887869E-4</v>
-      </c>
-      <c r="D35" s="22">
+        <v>8.2581107269120817E-4</v>
+      </c>
+      <c r="D35" s="47">
         <f>SUM(D30:D34)/5</f>
-        <v>1.4024164968507466E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="33"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="30" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="6">
         <v>1</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="28">
-        <v>2.9494822292703898E-3</v>
-      </c>
-      <c r="D39" s="29">
-        <v>9.823237879034621E-4</v>
+      <c r="C39" s="18">
+        <f>Лист1!C7</f>
+        <v>1.8201299616574199E-3</v>
+      </c>
+      <c r="D39" s="19">
+        <f>Лист1!D7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="9">
-        <v>2.70885538435214E-3</v>
-      </c>
-      <c r="D40" s="6">
-        <v>8.8242774505788103E-4</v>
+      <c r="C40" s="4">
+        <f>Лист1!H7</f>
+        <v>1.6288240943534899E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <f>Лист1!I7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="9">
-        <v>3.6595902924774098E-3</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2.5315538317280898E-3</v>
+      <c r="C41" s="4">
+        <f>Лист1!M7</f>
+        <v>1.57150416389204E-3</v>
+      </c>
+      <c r="D41" s="1">
+        <f>Лист1!N7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="9">
-        <v>2.8482321215409201E-3</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1.70807936160695E-3</v>
+      <c r="C42" s="4">
+        <f>Лист1!C7</f>
+        <v>1.8201299616574199E-3</v>
+      </c>
+      <c r="D42" s="1">
+        <f>Лист1!D7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="11">
         <v>5</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="10">
-        <v>3.1077141172038301E-3</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1.6119569957164599E-3</v>
+      <c r="C43" s="5">
+        <f>Лист1!H7</f>
+        <v>1.6288240943534899E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <f>Лист1!I7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="26">
+      <c r="B44" s="57"/>
+      <c r="C44" s="17">
         <f>SUM(C39:C43)/5</f>
-        <v>3.0547748289689383E-3</v>
-      </c>
-      <c r="D44" s="27">
+        <v>1.693882455182772E-3</v>
+      </c>
+      <c r="D44" s="50">
         <f>SUM(D39:D43)/5</f>
-        <v>1.5432683444025687E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8207,6 +8278,31 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="A44:B44"/>
   </mergeCells>
+  <conditionalFormatting sqref="C8:D8">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0.000194312</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:D17">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0.000546525</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:D26">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0.0000173445</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:D35">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.000829146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:D44">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.001740044</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Записка/Книга1.xlsx
+++ b/Записка/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my docs\stud\_ДИПЛОМНАЯ РАБОТА\Записка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65C7FFC-3CB5-4C5D-8BE1-96472F8D19B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B62E571-0CB2-47C9-96B7-264299BCFC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1751DF-0ED9-483C-B3B2-1920B3579F8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B1751DF-0ED9-483C-B3B2-1920B3579F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +101,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -484,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -509,7 +502,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,7 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -566,18 +557,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -585,15 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,12 +596,272 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -926,6 +1172,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>9.6324536903035399E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4654135482827501E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>8.1255981305922094E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1995979297816604E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.35041658404831E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1047,6 +1308,906 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2129962448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Лицо</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>   </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Невзвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист2!$B$3:$B$7,Лист2!$C$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Автомобиль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.22033838071863E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2975325250767397E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.25481182296967E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1903339658118102E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1929118168569902E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-818F-4E25-A82E-4BE1ABC97906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Взвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист2!$B$3:$B$7,Лист2!$C$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Автомобиль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$30:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1995979297816604E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.73560082510481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1010110879128705E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7617013948897502E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2644322688997795E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-818F-4E25-A82E-4BE1ABC97906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="917176272"/>
+        <c:axId val="917173776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917176272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917173776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="917173776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917176272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Печатный документ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>    </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Невзвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист2!$B$3:$B$7,Лист2!$C$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Автомобиль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$39:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8201299616574199E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6288240943534899E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.57150416389204E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.52074538711954E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2473541149715896E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-702A-412E-AC12-D8493410623A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Взвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист2!$B$3:$B$7,Лист2!$C$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Автомобиль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$39:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.35041658404831E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5116564148595401E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.54488936085396E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.03929213838531E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.42400296465301E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-702A-412E-AC12-D8493410623A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="917176272"/>
+        <c:axId val="917173776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917176272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917173776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="917173776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917176272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1380,6 +2541,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7207307482573899E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0201940171061695E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.77863911177138E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.73560082510481E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5116564148595401E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1834,6 +3010,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.98699040143403E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9811637582007704E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>3.47329356969429E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1010110879128705E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.54488936085396E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2216,7 +3407,7 @@
                 <c:pt idx="1">
                   <c:v>6.8128437536949297E-4</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="2">
                   <c:v>4.9108418943954701E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -2288,6 +3479,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0785790745404801E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3559342552197502E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>4.9069139700912697E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7617013948897502E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.03929213838531E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2670,7 +3876,7 @@
                 <c:pt idx="1">
                   <c:v>1.1873774474582099E-3</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="2">
                   <c:v>6.4042642181379899E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -2742,6 +3948,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6405936096773598E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8330389864882805E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>6.3863017214472599E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2644322688997795E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.42400296465301E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3119,7 +4340,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.542898239831958E-4</c:v>
+                  <c:v>1.940296320118764E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.0620844796528211E-4</c:v>
@@ -3197,19 +4418,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.8780278405879227E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.5311489130595445E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.4715416372126843E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.2124687013177743E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1740514925600259E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,7 +4639,1431 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Шахматная доска</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Невзвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.19091638167079E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8688751987695399E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.10165131647665E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98957760615591E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.66512201256355E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4250-4CF3-B5E5-64B6D410B491}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Взвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.6324536903035399E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7207307482573899E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.98699040143403E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0785790745404801E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6405936096773598E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4250-4CF3-B5E5-64B6D410B491}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="917176272"/>
+        <c:axId val="917173776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917176272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917173776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="917173776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917176272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Автомобиль</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Невзвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист2!$B$3:$B$7,Лист2!$C$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Автомобиль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3615181822097098E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.68714068939032E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5751452983870405E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8128437536949297E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1873774474582099E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4BC-4C3C-A0B0-61AD01A6003D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Взвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист2!$B$3:$B$7,Лист2!$C$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Автомобиль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4654135482827501E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0201940171061695E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9811637582007704E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3559342552197502E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8330389864882805E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4BC-4C3C-A0B0-61AD01A6003D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="917176272"/>
+        <c:axId val="917173776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917176272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917173776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="917173776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917176272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Телефон</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Невзвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист2!$B$3:$B$7,Лист2!$C$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Автомобиль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$21:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9328823015303801E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7371695425065702E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6418813470357497E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9108418943954701E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4042642181379899E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7705-4E9F-9454-F4302290EC3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО Взвешенного комплексирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист2!$B$3:$B$7,Лист2!$C$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Уменьшение в 2 раза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Уменьшение в 4 раза</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Уменьшение в 6 раз</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Уменьшение в 8 раз</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Уменьшение в 10 раз</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Автомобиль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$21:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.1255981305922094E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.77863911177138E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.47329356969429E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9069139700912697E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3863017214472599E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7705-4E9F-9454-F4302290EC3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="917176272"/>
+        <c:axId val="917173776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917176272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917173776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="917173776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917176272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3655,6 +6300,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -4149,8 +6914,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4173,6 +6938,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4247,6 +7023,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4257,6 +7038,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4288,6 +7074,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4343,23 +7132,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4464,8 +7252,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4597,20 +7385,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4643,8 +7430,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4667,6 +7454,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4741,6 +7539,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4751,6 +7554,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4782,6 +7590,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4837,23 +7648,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4958,8 +7768,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5091,20 +7901,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5137,7 +7946,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5631,7 +8440,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6125,7 +8934,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6587,6 +9396,2542 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6852,6 +12197,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129AE040-6D63-4107-A8DE-A84B252F5A3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42A8DC4-862D-4424-B8EC-68DF5BEDF919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E1D968-28B4-48BD-9402-76F74C0DF259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7E8A65-328A-4548-92E7-C47679FDB046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07798595-05E4-492C-BA81-39B4053A1B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -7151,492 +12691,537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6555FCB-B7FE-41E3-8AA9-1648AC0CB570}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="3.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="24"/>
-    <col min="11" max="11" width="3.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="3.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="22"/>
+    <col min="11" max="11" width="3.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="48"/>
+      <c r="F1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="K1" s="53" t="s">
+      <c r="I1" s="48"/>
+      <c r="K1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="52"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="25" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="27" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>1.19091638167079E-4</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="F3" s="29">
+      <c r="D3" s="60">
+        <v>9.6324536903035399E-5</v>
+      </c>
+      <c r="F3" s="27">
         <v>1</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="29">
         <v>1.8688751987695399E-4</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="K3" s="29">
+      <c r="I3" s="30">
+        <v>1.7207307482573899E-4</v>
+      </c>
+      <c r="K3" s="27">
         <v>1</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="29">
         <v>2.10165131647665E-4</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="30">
+        <v>1.98699040143403E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="32">
         <v>4.3615181822097098E-4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="F4" s="34">
+      <c r="D4" s="21">
+        <v>3.4654135482827501E-4</v>
+      </c>
+      <c r="F4" s="32">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="32">
         <v>5.68714068939032E-4</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="K4" s="34">
+      <c r="I4" s="21">
+        <v>5.0201940171061695E-4</v>
+      </c>
+      <c r="K4" s="32">
         <v>2</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="32">
         <v>6.5751452983870405E-4</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="21">
+        <v>4.9811637582007704E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="32">
         <v>9.9328823015303801E-6</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="F5" s="34">
+      <c r="D5" s="8">
+        <v>8.1255981305922094E-6</v>
+      </c>
+      <c r="F5" s="32">
         <v>3</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="32">
         <v>1.7371695425065702E-5</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="K5" s="34">
+      <c r="I5" s="8">
+        <v>1.77863911177138E-5</v>
+      </c>
+      <c r="K5" s="32">
         <v>3</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="32">
         <v>3.6418813470357497E-5</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="8">
+        <v>3.47329356969429E-5</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>8.22033838071863E-4</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="F6" s="34">
+      <c r="D6" s="21">
+        <v>7.1995979297816604E-4</v>
+      </c>
+      <c r="F6" s="32">
         <v>4</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="32">
         <v>8.2975325250767397E-4</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="K6" s="34">
+      <c r="I6" s="21">
+        <v>6.73560082510481E-4</v>
+      </c>
+      <c r="K6" s="32">
         <v>4</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="32">
         <v>8.25481182296967E-4</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="21">
+        <v>7.1010110879128705E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="35">
         <v>1.8201299616574199E-3</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="F7" s="37">
+      <c r="D7" s="37">
+        <v>1.35041658404831E-3</v>
+      </c>
+      <c r="F7" s="35">
         <v>5</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="35">
         <v>1.6288240943534899E-3</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="K7" s="37">
+      <c r="I7" s="37">
+        <v>1.5116564148595401E-3</v>
+      </c>
+      <c r="K7" s="35">
         <v>5</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="35">
         <v>1.57150416389204E-3</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="37">
+        <v>1.54488936085396E-3</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="F25" s="53" t="s">
+      <c r="D25" s="48"/>
+      <c r="F25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="K25" s="53" t="s">
+      <c r="I25" s="48"/>
+      <c r="K25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="51" t="s">
+      <c r="M25" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="52"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="27" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="27" t="s">
+      <c r="F26" s="52"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="27" t="s">
+      <c r="K26" s="52"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="28" t="s">
+      <c r="N26" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="29">
         <v>1.98957760615591E-4</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="F27" s="29">
+      <c r="D27" s="30">
+        <v>2.0785790745404801E-4</v>
+      </c>
+      <c r="F27" s="27">
         <v>1</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="38">
         <v>2.66512201256355E-4</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="K27" s="29">
+      <c r="I27" s="39">
+        <v>2.6405936096773598E-4</v>
+      </c>
+      <c r="K27" s="27">
         <v>1</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="29">
         <f>SUM(C3,H3,N3,C27,H27)/5</f>
-        <v>1.542898239831958E-4</v>
-      </c>
-      <c r="N27" s="42">
+        <v>1.940296320118764E-4</v>
+      </c>
+      <c r="N27" s="40">
         <f>SUM(D3,I3,N3,D27,I27)/5</f>
-        <v>0</v>
+        <v>1.8780278405879227E-4</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="32">
         <v>2</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="32">
         <v>6.8128437536949297E-4</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="F28" s="34">
+      <c r="D28" s="21">
+        <v>6.3559342552197502E-4</v>
+      </c>
+      <c r="F28" s="32">
         <v>2</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="41">
         <v>1.1873774474582099E-3</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="K28" s="34">
+      <c r="I28" s="21">
+        <v>7.8330389864882805E-4</v>
+      </c>
+      <c r="K28" s="32">
         <v>2</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="27">
         <f>SUM(C4,H4,M4,C28,H28)/5</f>
         <v>7.0620844796528211E-4</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="42">
         <f>SUM(D4,I4,N4,D28,I28)/5</f>
-        <v>0</v>
+        <v>5.5311489130595445E-4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="32">
         <v>3</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="32">
         <v>4.9108418943954701E-5</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="F29" s="34">
+      <c r="D29" s="8">
+        <v>4.9069139700912697E-5</v>
+      </c>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="61">
         <v>6.4042642181379899E-5</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="K29" s="34">
+      <c r="I29" s="14">
+        <v>6.3863017214472599E-5</v>
+      </c>
+      <c r="K29" s="32">
         <v>3</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="27">
         <f>SUM(C5,H5,M5,C29,H29)/5</f>
         <v>3.5374890464457633E-5</v>
       </c>
-      <c r="N29" s="44">
+      <c r="N29" s="42">
         <f t="shared" ref="N29" si="0">SUM(D5,I5,N5,D29,I29)/5</f>
-        <v>0</v>
+        <v>3.4715416372126843E-5</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="32">
         <v>4</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="32">
         <v>8.1903339658118102E-4</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="F30" s="34">
+      <c r="D30" s="21">
+        <v>7.7617013948897502E-4</v>
+      </c>
+      <c r="F30" s="32">
         <v>4</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="41">
         <v>8.1929118168569902E-4</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="K30" s="34">
+      <c r="I30" s="21">
+        <v>7.2644322688997795E-4</v>
+      </c>
+      <c r="K30" s="32">
         <v>4</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <f t="shared" ref="M30:N30" si="1">SUM(C6,H6,M6,C30,H30)/5</f>
         <v>8.2311857022867674E-4</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.2124687013177743E-4</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>5</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="35">
         <v>2.52074538711954E-3</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="F31" s="37">
+      <c r="D31" s="37">
+        <v>2.03929213838531E-3</v>
+      </c>
+      <c r="F31" s="35">
         <v>5</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="35">
         <v>5.2473541149715896E-3</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="K31" s="37">
+      <c r="I31" s="37">
+        <v>4.42400296465301E-3</v>
+      </c>
+      <c r="K31" s="35">
         <v>5</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="43">
         <f t="shared" ref="M31:N31" si="2">SUM(C7,H7,M7,C31,H31)/5</f>
         <v>2.5577115443988158E-3</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.1740514925600259E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="A1:A2"/>
@@ -7650,6 +13235,11 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7661,8 +13251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2802620E-2719-4D9C-AB2C-C1EFF0E6511D}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D44" sqref="C44:D44"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7672,24 +13262,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="60"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7697,116 +13287,116 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="17">
         <f>Лист1!C3</f>
         <v>1.19091638167079E-4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="18">
         <f>Лист1!D3</f>
-        <v>0</v>
+        <v>9.6324536903035399E-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
         <f>Лист1!H3</f>
         <v>1.8688751987695399E-4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <f>Лист1!I3</f>
-        <v>0</v>
+        <v>1.7207307482573899E-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4">
         <f>Лист1!M3</f>
         <v>2.10165131647665E-4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <f>Лист1!N3</f>
-        <v>0</v>
+        <v>1.98699040143403E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4">
         <f>Лист1!C27</f>
         <v>1.98957760615591E-4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <f>Лист1!D27</f>
-        <v>0</v>
+        <v>2.0785790745404801E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <f>Лист1!H27</f>
         <v>2.66512201256355E-4</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="2">
         <f>Лист1!I27</f>
-        <v>0</v>
+        <v>2.6405936096773598E-4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="13">
+      <c r="B8" s="59"/>
+      <c r="C8" s="16">
         <f>SUM(C3:C7)/5</f>
         <v>1.9632285031272881E-4</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="62">
         <f>SUM(D3:D7)/5</f>
-        <v>0</v>
+        <v>1.8780278405879227E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7823,7 +13413,7 @@
       </c>
       <c r="D12" s="6">
         <f>Лист1!D4</f>
-        <v>0</v>
+        <v>3.4654135482827501E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7839,7 +13429,7 @@
       </c>
       <c r="D13" s="4">
         <f>Лист1!I4</f>
-        <v>0</v>
+        <v>5.0201940171061695E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7855,7 +13445,7 @@
       </c>
       <c r="D14" s="4">
         <f>Лист1!N4</f>
-        <v>0</v>
+        <v>4.9811637582007704E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7866,12 +13456,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <f>Лист1!C4</f>
-        <v>4.3615181822097098E-4</v>
+        <f>Лист1!C28</f>
+        <v>6.8128437536949297E-4</v>
       </c>
       <c r="D15" s="4">
-        <f>Лист1!D4</f>
-        <v>0</v>
+        <f>Лист1!D28</f>
+        <v>6.3559342552197502E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7882,48 +13472,48 @@
         <v>11</v>
       </c>
       <c r="C16" s="11">
-        <f>Лист1!H4</f>
-        <v>5.68714068939032E-4</v>
+        <f>Лист1!H28</f>
+        <v>1.1873774474582099E-3</v>
       </c>
       <c r="D16" s="11">
-        <f>Лист1!I4</f>
-        <v>0</v>
+        <f>Лист1!I28</f>
+        <v>7.8330389864882805E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="13">
         <f>SUM(C12:C16)/5</f>
-        <v>5.3344926083174202E-4</v>
-      </c>
-      <c r="D17" s="47">
+        <v>7.0620844796528211E-4</v>
+      </c>
+      <c r="D17" s="63">
         <f>SUM(D12:D16)/5</f>
-        <v>0</v>
+        <v>5.5311489130595445E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7940,7 +13530,7 @@
       </c>
       <c r="D21" s="6">
         <f>Лист1!D5</f>
-        <v>0</v>
+        <v>8.1255981305922094E-6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7956,7 +13546,7 @@
       </c>
       <c r="D22" s="4">
         <f>Лист1!I5</f>
-        <v>0</v>
+        <v>1.77863911177138E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7972,7 +13562,7 @@
       </c>
       <c r="D23" s="4">
         <f>Лист1!N5</f>
-        <v>0</v>
+        <v>3.47329356969429E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7983,12 +13573,12 @@
         <v>12</v>
       </c>
       <c r="C24" s="4">
-        <f>Лист1!C5</f>
-        <v>9.9328823015303801E-6</v>
+        <f>Лист1!C29</f>
+        <v>4.9108418943954701E-5</v>
       </c>
       <c r="D24" s="4">
-        <f>Лист1!D5</f>
-        <v>0</v>
+        <f>Лист1!D29</f>
+        <v>4.9069139700912697E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7999,48 +13589,48 @@
         <v>11</v>
       </c>
       <c r="C25" s="11">
-        <f>Лист1!H5</f>
-        <v>1.7371695425065702E-5</v>
+        <f>Лист1!H29</f>
+        <v>6.4042642181379899E-5</v>
       </c>
       <c r="D25" s="11">
-        <f>Лист1!I5</f>
-        <v>0</v>
+        <f>Лист1!I29</f>
+        <v>6.3863017214472599E-5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="13">
         <f>SUM(C21:C25)/5</f>
-        <v>1.8205593784709931E-5</v>
-      </c>
-      <c r="D26" s="47">
+        <v>3.5374890464457633E-5</v>
+      </c>
+      <c r="D26" s="63">
         <f>SUM(D21:D25)/5</f>
-        <v>0</v>
+        <v>3.4715416372126843E-5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="60"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="54"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8057,7 +13647,7 @@
       </c>
       <c r="D30" s="6">
         <f>Лист1!D6</f>
-        <v>0</v>
+        <v>7.1995979297816604E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -8073,7 +13663,7 @@
       </c>
       <c r="D31" s="4">
         <f>Лист1!I6</f>
-        <v>0</v>
+        <v>6.73560082510481E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8089,7 +13679,7 @@
       </c>
       <c r="D32" s="4">
         <f>Лист1!N6</f>
-        <v>0</v>
+        <v>7.1010110879128705E-4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8100,12 +13690,12 @@
         <v>12</v>
       </c>
       <c r="C33" s="4">
-        <f>Лист1!C6</f>
-        <v>8.22033838071863E-4</v>
+        <f>Лист1!C30</f>
+        <v>8.1903339658118102E-4</v>
       </c>
       <c r="D33" s="4">
-        <f>Лист1!D6</f>
-        <v>0</v>
+        <f>Лист1!D30</f>
+        <v>7.7617013948897502E-4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8116,48 +13706,48 @@
         <v>11</v>
       </c>
       <c r="C34" s="11">
-        <f>Лист1!H6</f>
-        <v>8.2975325250767397E-4</v>
+        <f>Лист1!H30</f>
+        <v>8.1929118168569902E-4</v>
       </c>
       <c r="D34" s="11">
-        <f>Лист1!I6</f>
-        <v>0</v>
+        <f>Лист1!I30</f>
+        <v>7.2644322688997795E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="13">
         <f>SUM(C30:C34)/5</f>
-        <v>8.2581107269120817E-4</v>
-      </c>
-      <c r="D35" s="47">
+        <v>8.2311857022867674E-4</v>
+      </c>
+      <c r="D35" s="63">
         <f>SUM(D30:D34)/5</f>
-        <v>0</v>
+        <v>7.2124687013177743E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="60"/>
+      <c r="D37" s="55"/>
     </row>
     <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="48" t="s">
+      <c r="A38" s="54"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8168,13 +13758,13 @@
       <c r="B39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <f>Лист1!C7</f>
         <v>1.8201299616574199E-3</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="17">
         <f>Лист1!D7</f>
-        <v>0</v>
+        <v>1.35041658404831E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8188,9 +13778,9 @@
         <f>Лист1!H7</f>
         <v>1.6288240943534899E-3</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <f>Лист1!I7</f>
-        <v>0</v>
+        <v>1.5116564148595401E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8204,9 +13794,9 @@
         <f>Лист1!M7</f>
         <v>1.57150416389204E-3</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <f>Лист1!N7</f>
-        <v>0</v>
+        <v>1.54488936085396E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8217,46 +13807,51 @@
         <v>12</v>
       </c>
       <c r="C42" s="4">
-        <f>Лист1!C7</f>
-        <v>1.8201299616574199E-3</v>
-      </c>
-      <c r="D42" s="1">
-        <f>Лист1!D7</f>
-        <v>0</v>
+        <f>Лист1!C31</f>
+        <v>2.52074538711954E-3</v>
+      </c>
+      <c r="D42" s="4">
+        <f>Лист1!D31</f>
+        <v>2.03929213838531E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>5</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="5">
-        <f>Лист1!H7</f>
-        <v>1.6288240943534899E-3</v>
-      </c>
-      <c r="D43" s="2">
-        <f>Лист1!I7</f>
-        <v>0</v>
+        <f>Лист1!H31</f>
+        <v>5.2473541149715896E-3</v>
+      </c>
+      <c r="D43" s="5">
+        <f>Лист1!I31</f>
+        <v>4.42400296465301E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="17">
+      <c r="B44" s="59"/>
+      <c r="C44" s="16">
         <f>SUM(C39:C43)/5</f>
-        <v>1.693882455182772E-3</v>
-      </c>
-      <c r="D44" s="50">
+        <v>2.5577115443988158E-3</v>
+      </c>
+      <c r="D44" s="62">
         <f>SUM(D39:D43)/5</f>
-        <v>0</v>
+        <v>2.1740514925600259E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:D28"/>
@@ -8272,37 +13867,13 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:D8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>0.000194312</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D17">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>0.000546525</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>0.0000173445</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0.000829146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44:D44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.001740044</formula>
+      <formula>0.00015534</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Записка/Книга1.xlsx
+++ b/Записка/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my docs\stud\_ДИПЛОМНАЯ РАБОТА\Записка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B62E571-0CB2-47C9-96B7-264299BCFC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3360C6-4E6F-4D03-903A-C2D6E86CE6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B1751DF-0ED9-483C-B3B2-1920B3579F8B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
   <si>
     <t>Невзвешенное комплексирование</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>Печатный документ</t>
+  </si>
+  <si>
+    <t>в 2 раза</t>
+  </si>
+  <si>
+    <t>в 4 раза</t>
+  </si>
+  <si>
+    <t>в 6 раз</t>
+  </si>
+  <si>
+    <t>в 8 раз</t>
+  </si>
+  <si>
+    <t>в 10 раз</t>
   </si>
 </sst>
 </file>
@@ -477,19 +492,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,9 +507,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -566,13 +572,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -580,6 +587,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,312 +612,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1508,19 +1224,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Автомобиль</c:v>
@@ -1591,19 +1307,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Автомобиль</c:v>
@@ -1661,6 +1377,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Коэффициент уменьшения оригинала</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1709,6 +1483,7 @@
         <c:axId val="917173776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="6.5000000000000019E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1726,6 +1501,99 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Отношение СКО восстановленного изображения к СКО оригинала</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1958,19 +1826,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Автомобиль</c:v>
@@ -2041,19 +1909,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Автомобиль</c:v>
@@ -2111,6 +1979,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Коэффициент уменьшения оригинала</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2159,6 +2085,8 @@
         <c:axId val="917173776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-3"/>
+          <c:min val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2176,6 +2104,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Отношение СКО восстановленного изображения к СКО оригинала</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4753,19 +4746,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4833,19 +4826,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4900,6 +4893,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Коэффициент</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> уменьшения оригинала</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4948,6 +5001,8 @@
         <c:axId val="917173776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.7000000000000011E-4"/>
+          <c:min val="1.0000000000000003E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4965,6 +5020,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Отношение СКО восстановленного изображения к СКО оригинала</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5010,6 +5120,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22743554913383604"/>
+          <c:y val="0.86863554610525151"/>
+          <c:w val="0.53312142604403301"/>
+          <c:h val="0.11075839230533965"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5104,12 +5224,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5117,16 +5237,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Автомобиль</a:t>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Автомобиль </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5143,12 +5256,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5197,19 +5310,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Автомобиль</c:v>
@@ -5280,19 +5393,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Автомобиль</c:v>
@@ -5350,6 +5463,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Коэффициент уменьшения оригинала</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5372,12 +5540,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5398,6 +5566,8 @@
         <c:axId val="917173776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2000000000000003E-3"/>
+          <c:min val="2.0000000000000006E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5415,6 +5585,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Отношение СКО восстановленного изображения к СКО оригинала</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5431,12 +5656,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5473,12 +5698,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5520,7 +5745,17 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -5647,19 +5882,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Автомобиль</c:v>
@@ -5730,19 +5965,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Уменьшение в 2 раза</c:v>
+                  <c:v>в 2 раза</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Уменьшение в 4 раза</c:v>
+                  <c:v>в 4 раза</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Уменьшение в 6 раз</c:v>
+                  <c:v>в 6 раз</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Уменьшение в 8 раз</c:v>
+                  <c:v>в 8 раз</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Уменьшение в 10 раз</c:v>
+                  <c:v>в 10 раз</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Автомобиль</c:v>
@@ -5800,6 +6035,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Коэффициент уменьшения оригинала</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5848,6 +6141,8 @@
         <c:axId val="917173776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.5000000000000021E-5"/>
+          <c:min val="1.0000000000000004E-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5865,6 +6160,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Отношение СКО восстановленного изображения к СКО оригинала</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12204,13 +12564,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12697,267 +13057,267 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="22"/>
-    <col min="6" max="6" width="3.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="22"/>
-    <col min="11" max="11" width="3.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="3.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="19"/>
+    <col min="11" max="11" width="3.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="50"/>
       <c r="F1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="48"/>
+      <c r="I1" s="50"/>
       <c r="K1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="48"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="52"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="52"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="26">
         <v>1.19091638167079E-4</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="45">
         <v>9.6324536903035399E-5</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="26">
         <v>1.8688751987695399E-4</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="27">
         <v>1.7207307482573899E-4</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="24">
         <v>1</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="26">
         <v>2.10165131647665E-4</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="27">
         <v>1.98699040143403E-4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="29">
         <v>4.3615181822097098E-4</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>3.4654135482827501E-4</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="29">
         <v>5.68714068939032E-4</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>5.0201940171061695E-4</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="29">
         <v>2</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="29">
         <v>6.5751452983870405E-4</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="18">
         <v>4.9811637582007704E-4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>9.9328823015303801E-6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>8.1255981305922094E-6</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <v>3</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="29">
         <v>1.7371695425065702E-5</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>1.77863911177138E-5</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="29">
         <v>3</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="29">
         <v>3.6418813470357497E-5</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <v>3.47329356969429E-5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>8.22033838071863E-4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>7.1995979297816604E-4</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="29">
         <v>4</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="29">
         <v>8.2975325250767397E-4</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>6.73560082510481E-4</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="29">
         <v>4</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="29">
         <v>8.25481182296967E-4</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="18">
         <v>7.1010110879128705E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>1.8201299616574199E-3</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="34">
         <v>1.35041658404831E-3</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>5</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>1.6288240943534899E-3</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <v>1.5116564148595401E-3</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="32">
         <v>5</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="32">
         <v>1.57150416389204E-3</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="34">
         <v>1.54488936085396E-3</v>
       </c>
     </row>
@@ -12966,262 +13326,267 @@
       <c r="A25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="50"/>
       <c r="F25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="48"/>
+      <c r="I25" s="50"/>
       <c r="K25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="48" t="s">
+      <c r="L25" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="48"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="44" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="52"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="25" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="44" t="s">
         <v>1</v>
       </c>
       <c r="K26" s="52"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="25" t="s">
+      <c r="L26" s="53"/>
+      <c r="M26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="26" t="s">
+      <c r="N26" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="24">
         <v>1</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="26">
         <v>1.98957760615591E-4</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="27">
         <v>2.0785790745404801E-4</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="24">
         <v>1</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="35">
         <v>2.66512201256355E-4</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="36">
         <v>2.6405936096773598E-4</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="24">
         <v>1</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="26">
         <f>SUM(C3,H3,N3,C27,H27)/5</f>
         <v>1.940296320118764E-4</v>
       </c>
-      <c r="N27" s="40">
+      <c r="N27" s="37">
         <f>SUM(D3,I3,N3,D27,I27)/5</f>
         <v>1.8780278405879227E-4</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="29">
         <v>2</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="29">
         <v>6.8128437536949297E-4</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="18">
         <v>6.3559342552197502E-4</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="29">
         <v>2</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="38">
         <v>1.1873774474582099E-3</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="18">
         <v>7.8330389864882805E-4</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="29">
         <v>2</v>
       </c>
-      <c r="L28" s="34" t="s">
+      <c r="L28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="27">
+      <c r="M28" s="24">
         <f>SUM(C4,H4,M4,C28,H28)/5</f>
         <v>7.0620844796528211E-4</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="39">
         <f>SUM(D4,I4,N4,D28,I28)/5</f>
         <v>5.5311489130595445E-4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="29">
         <v>3</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <v>4.9108418943954701E-5</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>4.9069139700912697E-5</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="29">
         <v>3</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="46">
         <v>6.4042642181379899E-5</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="11">
         <v>6.3863017214472599E-5</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="29">
         <v>3</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="27">
+      <c r="M29" s="24">
         <f>SUM(C5,H5,M5,C29,H29)/5</f>
         <v>3.5374890464457633E-5</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="39">
         <f t="shared" ref="N29" si="0">SUM(D5,I5,N5,D29,I29)/5</f>
         <v>3.4715416372126843E-5</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="29">
         <v>4</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="29">
         <v>8.1903339658118102E-4</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="18">
         <v>7.7617013948897502E-4</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="29">
         <v>4</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="38">
         <v>8.1929118168569902E-4</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="18">
         <v>7.2644322688997795E-4</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="29">
         <v>4</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="27">
+      <c r="M30" s="24">
         <f t="shared" ref="M30:N30" si="1">SUM(C6,H6,M6,C30,H30)/5</f>
         <v>8.2311857022867674E-4</v>
       </c>
-      <c r="N30" s="42">
+      <c r="N30" s="39">
         <f t="shared" si="1"/>
         <v>7.2124687013177743E-4</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="A31" s="32">
         <v>5</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="32">
         <v>2.52074538711954E-3</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="34">
         <v>2.03929213838531E-3</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="32">
         <v>5</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="32">
         <v>5.2473541149715896E-3</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="34">
         <v>4.42400296465301E-3</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="32">
         <v>5</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="40">
         <f t="shared" ref="M31:N31" si="2">SUM(C7,H7,M7,C31,H31)/5</f>
         <v>2.5577115443988158E-3</v>
       </c>
-      <c r="N31" s="44">
+      <c r="N31" s="41">
         <f t="shared" si="2"/>
         <v>2.1740514925600259E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="A1:A2"/>
@@ -13235,11 +13600,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13251,8 +13611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2802620E-2719-4D9C-AB2C-C1EFF0E6511D}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:T54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13262,51 +13622,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14">
         <f>Лист1!C3</f>
         <v>1.19091638167079E-4</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <f>Лист1!D3</f>
         <v>9.6324536903035399E-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
         <f>Лист1!H3</f>
         <v>1.8688751987695399E-4</v>
       </c>
@@ -13316,13 +13676,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
         <f>Лист1!M3</f>
         <v>2.10165131647665E-4</v>
       </c>
@@ -13332,13 +13692,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
         <f>Лист1!C27</f>
         <v>1.98957760615591E-4</v>
       </c>
@@ -13348,13 +13708,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
         <f>Лист1!H27</f>
         <v>2.66512201256355E-4</v>
       </c>
@@ -13364,494 +13724,489 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="16">
+      <c r="B8" s="55"/>
+      <c r="C8" s="13">
         <f>SUM(C3:C7)/5</f>
         <v>1.9632285031272881E-4</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="47">
         <f>SUM(D3:D7)/5</f>
         <v>1.8780278405879227E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
         <f>Лист1!C4</f>
         <v>4.3615181822097098E-4</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>Лист1!D4</f>
         <v>3.4654135482827501E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
         <f>Лист1!H4</f>
         <v>5.68714068939032E-4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>Лист1!I4</f>
         <v>5.0201940171061695E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
         <f>Лист1!M4</f>
         <v>6.5751452983870405E-4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f>Лист1!N4</f>
         <v>4.9811637582007704E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
         <f>Лист1!C28</f>
         <v>6.8128437536949297E-4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f>Лист1!D28</f>
         <v>6.3559342552197502E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>5</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9">
         <f>Лист1!H28</f>
         <v>1.1873774474582099E-3</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <f>Лист1!I28</f>
         <v>7.8330389864882805E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="13">
+      <c r="B17" s="55"/>
+      <c r="C17" s="10">
         <f>SUM(C12:C16)/5</f>
         <v>7.0620844796528211E-4</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="48">
         <f>SUM(D12:D16)/5</f>
         <v>5.5311489130595445E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="19" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
         <f>Лист1!C5</f>
         <v>9.9328823015303801E-6</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>Лист1!D5</f>
         <v>8.1255981305922094E-6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
         <f>Лист1!H5</f>
         <v>1.7371695425065702E-5</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f>Лист1!I5</f>
         <v>1.77863911177138E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
         <f>Лист1!M5</f>
         <v>3.6418813470357497E-5</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f>Лист1!N5</f>
         <v>3.47329356969429E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
         <f>Лист1!C29</f>
         <v>4.9108418943954701E-5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f>Лист1!D29</f>
         <v>4.9069139700912697E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="11">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9">
         <f>Лист1!H29</f>
         <v>6.4042642181379899E-5</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <f>Лист1!I29</f>
         <v>6.3863017214472599E-5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="13">
+      <c r="B26" s="55"/>
+      <c r="C26" s="10">
         <f>SUM(C21:C25)/5</f>
         <v>3.5374890464457633E-5</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="48">
         <f>SUM(D21:D25)/5</f>
         <v>3.4715416372126843E-5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="19" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5">
         <f>Лист1!C6</f>
         <v>8.22033838071863E-4</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>Лист1!D6</f>
         <v>7.1995979297816604E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>2</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3">
         <f>Лист1!H6</f>
         <v>8.2975325250767397E-4</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <f>Лист1!I6</f>
         <v>6.73560082510481E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>3</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3">
         <f>Лист1!M6</f>
         <v>8.25481182296967E-4</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <f>Лист1!N6</f>
         <v>7.1010110879128705E-4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>4</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3">
         <f>Лист1!C30</f>
         <v>8.1903339658118102E-4</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <f>Лист1!D30</f>
         <v>7.7617013948897502E-4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="9">
         <v>5</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="11">
+        <v>23</v>
+      </c>
+      <c r="C34" s="9">
         <f>Лист1!H30</f>
         <v>8.1929118168569902E-4</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <f>Лист1!I30</f>
         <v>7.2644322688997795E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="13">
+      <c r="B35" s="55"/>
+      <c r="C35" s="10">
         <f>SUM(C30:C34)/5</f>
         <v>8.2311857022867674E-4</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="48">
         <f>SUM(D30:D34)/5</f>
         <v>7.2124687013177743E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="55"/>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="45" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>1</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="17">
+      <c r="B39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14">
         <f>Лист1!C7</f>
         <v>1.8201299616574199E-3</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="14">
         <f>Лист1!D7</f>
         <v>1.35041658404831E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>2</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3">
         <f>Лист1!H7</f>
         <v>1.6288240943534899E-3</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <f>Лист1!I7</f>
         <v>1.5116564148595401E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>3</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3">
         <f>Лист1!M7</f>
         <v>1.57150416389204E-3</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <f>Лист1!N7</f>
         <v>1.54488936085396E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>4</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="3">
         <f>Лист1!C31</f>
         <v>2.52074538711954E-3</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <f>Лист1!D31</f>
         <v>2.03929213838531E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="B43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="4">
         <f>Лист1!H31</f>
         <v>5.2473541149715896E-3</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f>Лист1!I31</f>
         <v>4.42400296465301E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="16">
+      <c r="B44" s="55"/>
+      <c r="C44" s="13">
         <f>SUM(C39:C43)/5</f>
         <v>2.5577115443988158E-3</v>
       </c>
-      <c r="D44" s="62">
+      <c r="D44" s="47">
         <f>SUM(D39:D43)/5</f>
         <v>2.1740514925600259E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:D28"/>
@@ -13867,6 +14222,11 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:D8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
